--- a/Devoir1_Entame.xlsx
+++ b/Devoir1_Entame.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexn\Documents\hec\session_1\MATH_2\tp_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Documents\MATH20609\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1CD7E5-8C07-4843-93EE-E3101841B1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA860D5-91B7-4B28-B234-D7B74FB34DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A953C4-44C8-4BC6-81D8-56B7766EA183}"/>
+    <workbookView xWindow="6450" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{C9A953C4-44C8-4BC6-81D8-56B7766EA183}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Recherche de racines d'une fonction</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Animation_Ordinateur</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -444,17 +451,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -462,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -470,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -478,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -486,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -494,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -502,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -510,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -518,7 +525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -526,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -534,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -542,11 +549,134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A41DBD-7C51-4D5A-A27C-843666A3B681}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>22025.465794806718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
     </row>
